--- a/notes_resources.xlsx
+++ b/notes_resources.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\dev10\capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\dev10\finet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB69C1-7D61-4510-9C40-1442D905C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2013A429-D045-4F5E-A0D9-EA9E3D74D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://medium.com/geekculture/how-to-execute-a-rest-api-call-on-apache-spark-the-right-way-in-python-4367f2740e78</t>
   </si>
@@ -40,6 +41,66 @@
   </si>
   <si>
     <t>I'm looking to use Neo4J in Java and its Object-Graph-Mapping functionality to create edges between nodes based on the models sharing a common property value please provide sample code for this</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>neo4j</t>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>CfAfFzet9Yhj78Z0suKe8zL24gV_tcjV8CLYTZ48x3c</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Initialize Neo4j AuraDB cloud instance</t>
+  </si>
+  <si>
+    <t>Connect to db via Spring application</t>
+  </si>
+  <si>
+    <t>Create Stock Repository</t>
+  </si>
+  <si>
+    <t>Create Stock Service</t>
+  </si>
+  <si>
+    <t>Create Stock Controller</t>
+  </si>
+  <si>
+    <t>Create Stock Model</t>
+  </si>
+  <si>
+    <t>Create Stock Service tests</t>
+  </si>
+  <si>
+    <t>Create Tag Model</t>
+  </si>
+  <si>
+    <t>Create Tag Repository</t>
+  </si>
+  <si>
+    <t>Create Tag Service</t>
+  </si>
+  <si>
+    <t>Create Tag Service tests</t>
+  </si>
+  <si>
+    <t>Create Tag Controller</t>
+  </si>
+  <si>
+    <t>Create React frontend</t>
+  </si>
+  <si>
+    <t>Connect to Alpha Vantage API</t>
   </si>
 </sst>
 </file>
@@ -357,37 +418,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2281EE47-97FB-48EC-8AF3-3870E558894B}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/notes_resources.xlsx
+++ b/notes_resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\dev10\finet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2013A429-D045-4F5E-A0D9-EA9E3D74D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7926071-F2AF-4861-8002-87D5248CE23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>https://medium.com/geekculture/how-to-execute-a-rest-api-call-on-apache-spark-the-right-way-in-python-4367f2740e78</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Connect to Alpha Vantage API</t>
+  </si>
+  <si>
+    <t>AV key</t>
+  </si>
+  <si>
+    <t>0IBANWKGCSZILWKU</t>
   </si>
 </sst>
 </file>
@@ -136,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +472,14 @@
       </c>
       <c r="B10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2281EE47-97FB-48EC-8AF3-3870E558894B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/notes_resources.xlsx
+++ b/notes_resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\dev10\finet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7926071-F2AF-4861-8002-87D5248CE23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74070A9-1EB3-4A09-9550-5E8F8217236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>https://medium.com/geekculture/how-to-execute-a-rest-api-call-on-apache-spark-the-right-way-in-python-4367f2740e78</t>
   </si>
@@ -97,16 +97,28 @@
     <t>Create Tag Controller</t>
   </si>
   <si>
-    <t>Create React frontend</t>
-  </si>
-  <si>
-    <t>Connect to Alpha Vantage API</t>
-  </si>
-  <si>
     <t>AV key</t>
   </si>
   <si>
     <t>0IBANWKGCSZILWKU</t>
+  </si>
+  <si>
+    <t>Create React Landing/navigation scaffolding</t>
+  </si>
+  <si>
+    <t>Create React Query page</t>
+  </si>
+  <si>
+    <t>Create React Visualization page</t>
+  </si>
+  <si>
+    <t>Connect to/access data from Alpha Vantage API</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -142,9 +154,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -476,10 +487,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -489,132 +500,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2281EE47-97FB-48EC-8AF3-3870E558894B}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/notes_resources.xlsx
+++ b/notes_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\dev10\finet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74070A9-1EB3-4A09-9550-5E8F8217236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F555C437-3322-4C9E-97F3-D6EC794BB464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>https://medium.com/geekculture/how-to-execute-a-rest-api-call-on-apache-spark-the-right-way-in-python-4367f2740e78</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Connect to db via React frontend</t>
+  </si>
+  <si>
+    <t>Populate data in db</t>
+  </si>
+  <si>
+    <t>Test UI actions and ensure all components work</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2281EE47-97FB-48EC-8AF3-3870E558894B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,6 +708,39 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
